--- a/Rev2_F401RE/eagle/revb_pnp.xlsx
+++ b/Rev2_F401RE/eagle/revb_pnp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wpi0-my.sharepoint.com/personal/jwbuchta_wpi_edu/Documents/Projects/Interrupter/TeslaCoilController/Rev2_F401RE/eagle/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="11_F25DC773A252ABDACC10483079DB61465BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{49155E91-357B-4ABB-8368-4EA04260C594}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="11_F25DC773A252ABDACC10483079DB61465BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2D5F0433-19B8-4676-8519-572C8AAC1845}"/>
   <bookViews>
-    <workbookView xWindow="2196" yWindow="2196" windowWidth="17280" windowHeight="9984" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2616" yWindow="6852" windowWidth="17280" windowHeight="9984" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -710,8 +710,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A108" workbookViewId="0">
-      <selection activeCell="D117" sqref="D117"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1741,10 +1741,10 @@
         <v>64</v>
       </c>
       <c r="B61">
-        <v>88.7</v>
+        <v>92.6</v>
       </c>
       <c r="C61">
-        <v>19.100000000000001</v>
+        <v>21.9</v>
       </c>
       <c r="D61" t="s">
         <v>118</v>
